--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/17.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/17.xlsx
@@ -479,13 +479,13 @@
         <v>0.03395103878481839</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.543532032634893</v>
+        <v>-2.530708430252442</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.08046813449823625</v>
+        <v>-0.08224501302487214</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2126233793188669</v>
+        <v>0.208383399662868</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.06247667121228656</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.751677948522928</v>
+        <v>-2.738570366786795</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1268056807594056</v>
+        <v>-0.1291519780414959</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2662524057460343</v>
+        <v>0.2618445205595809</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.09563380451558283</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.048169184319712</v>
+        <v>-3.03386655322117</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2360523191135581</v>
+        <v>-0.2358552126212854</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2779138098481221</v>
+        <v>0.2748331083763047</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1263963196512447</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.271830301245788</v>
+        <v>-3.256131134148293</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3249926086193524</v>
+        <v>-0.3230916260049893</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2950182732331175</v>
+        <v>0.2902307755430278</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1537585870555054</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.320153512910593</v>
+        <v>-3.303817764845462</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3760169092523387</v>
+        <v>-0.37463716380643</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3254033340530184</v>
+        <v>0.3210888919443832</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1804903656858205</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.106056441004015</v>
+        <v>-3.089803915680065</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4482060670111375</v>
+        <v>-0.4449267989989565</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3262355614648363</v>
+        <v>0.3197398075083835</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2135840510423449</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.752107932685701</v>
+        <v>-2.733293752986251</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5517687381473825</v>
+        <v>-0.5482485622002016</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3035639347092061</v>
+        <v>0.2977076818165713</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2623134101347259</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.325278203813497</v>
+        <v>-2.306054480624548</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5525308832508368</v>
+        <v>-0.5467038313200201</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2985647300459347</v>
+        <v>0.2931888329752089</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3389920307456118</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.941132980879009</v>
+        <v>-1.92243925514706</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6386649603259046</v>
+        <v>-0.6269290937711804</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3133827581205671</v>
+        <v>0.3079995608093867</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.4526432252382768</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.431348429649692</v>
+        <v>-1.412345903746515</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7772206040569583</v>
+        <v>-0.7668425822267793</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3231986614357463</v>
+        <v>0.3185381879295657</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.603206266585546</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8967649615962898</v>
+        <v>-0.8758877339443863</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9366432551032791</v>
+        <v>-0.9260520662518273</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3665606296876437</v>
+        <v>0.3634799282158264</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.7883407936694278</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4031300023005133</v>
+        <v>-0.3801999470327921</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.254976080316012</v>
+        <v>-1.241270608886652</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3988612736028169</v>
+        <v>0.3963981724734539</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.9985325633079875</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2039579938993237</v>
+        <v>0.2225473261927733</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.685458119487623</v>
+        <v>-1.671632924114809</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4970378273316996</v>
+        <v>0.4955003966919727</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.216998619890516</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8228782198278848</v>
+        <v>0.8392541192155167</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.087554633699834</v>
+        <v>-2.072493507618065</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5745532405261333</v>
+        <v>0.5729004660872247</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.438827889246436</v>
       </c>
       <c r="E16" t="n">
-        <v>1.301601707971211</v>
+        <v>1.318643389288297</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.484441696323682</v>
+        <v>-2.468185520879504</v>
       </c>
       <c r="G16" t="n">
-        <v>0.68880346368783</v>
+        <v>0.6886165775321936</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.672464424441277</v>
       </c>
       <c r="E17" t="n">
-        <v>1.852950908252517</v>
+        <v>1.870213056831331</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.842144718307767</v>
+        <v>-2.824775986218317</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8051868171103441</v>
+        <v>0.8053459623522532</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.924926561249085</v>
       </c>
       <c r="E18" t="n">
-        <v>2.266172258893406</v>
+        <v>2.28324168112422</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.174354570600542</v>
+        <v>-3.157383701615865</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9330344681426734</v>
+        <v>0.9343718721939458</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.196003867257481</v>
       </c>
       <c r="E19" t="n">
-        <v>2.718642622314103</v>
+        <v>2.732939413220281</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.443989681813151</v>
+        <v>-3.427708685551428</v>
       </c>
       <c r="G19" t="n">
-        <v>1.105787358258991</v>
+        <v>1.10752189539099</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.473455738624658</v>
       </c>
       <c r="E20" t="n">
-        <v>3.040602206984653</v>
+        <v>3.054668310292467</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.71000022364008</v>
+        <v>-3.69676196759981</v>
       </c>
       <c r="G20" t="n">
-        <v>1.242525242116863</v>
+        <v>1.245300793537681</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.736302702505161</v>
       </c>
       <c r="E21" t="n">
-        <v>3.374726912348654</v>
+        <v>3.389359514315741</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.933850416793929</v>
+        <v>-3.921769248865705</v>
       </c>
       <c r="G21" t="n">
-        <v>1.362563095910922</v>
+        <v>1.365335727235557</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.96576950345378</v>
       </c>
       <c r="E22" t="n">
-        <v>3.695067303686386</v>
+        <v>3.707701099817019</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.098795699744112</v>
+        <v>-4.087861399591296</v>
       </c>
       <c r="G22" t="n">
-        <v>1.425469267907723</v>
+        <v>1.430053818913176</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.150657945262469</v>
       </c>
       <c r="E23" t="n">
-        <v>3.90568508099233</v>
+        <v>3.916054342533963</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.199585009531676</v>
+        <v>-4.192395732732042</v>
       </c>
       <c r="G23" t="n">
-        <v>1.517217229892335</v>
+        <v>1.519407302028698</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.283202213171848</v>
       </c>
       <c r="E24" t="n">
-        <v>4.06232780047356</v>
+        <v>4.071258914645649</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.251884662172071</v>
+        <v>-4.247067233496117</v>
       </c>
       <c r="G24" t="n">
-        <v>1.567293959314321</v>
+        <v>1.568688305241139</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.359996449767153</v>
       </c>
       <c r="E25" t="n">
-        <v>4.164986701841533</v>
+        <v>4.174623019241531</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.275423557493701</v>
+        <v>-4.271652983298929</v>
       </c>
       <c r="G25" t="n">
-        <v>1.581379043247318</v>
+        <v>1.582986556195408</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.385477916363619</v>
       </c>
       <c r="E26" t="n">
-        <v>4.194421271354252</v>
+        <v>4.202946492157068</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.178777864188135</v>
+        <v>-4.176020563368454</v>
       </c>
       <c r="G26" t="n">
-        <v>1.526879828157969</v>
+        <v>1.531395756903149</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.365821851036751</v>
       </c>
       <c r="E27" t="n">
-        <v>4.142766229945994</v>
+        <v>4.15585556108099</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.102625405886565</v>
+        <v>-4.101641333473293</v>
       </c>
       <c r="G27" t="n">
-        <v>1.505198114007974</v>
+        <v>1.5092731082297</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.306847273849382</v>
       </c>
       <c r="E28" t="n">
-        <v>4.098101898797005</v>
+        <v>4.110423244636184</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.93435924355361</v>
+        <v>-3.932413729472475</v>
       </c>
       <c r="G28" t="n">
-        <v>1.405301623628001</v>
+        <v>1.412125888404908</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.215357826875275</v>
       </c>
       <c r="E29" t="n">
-        <v>3.940628411952048</v>
+        <v>3.953279728659771</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.763345270713566</v>
+        <v>-3.762733510563475</v>
       </c>
       <c r="G29" t="n">
-        <v>1.303781559770937</v>
+        <v>1.3102597931503</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.097272844936779</v>
       </c>
       <c r="E30" t="n">
-        <v>3.836329876577985</v>
+        <v>3.850017827430254</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.602378618811109</v>
+        <v>-3.599937418403109</v>
       </c>
       <c r="G30" t="n">
-        <v>1.210745835370144</v>
+        <v>1.217419715193688</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.955823234974835</v>
       </c>
       <c r="E31" t="n">
-        <v>3.686117208889116</v>
+        <v>3.697723131163749</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.446003088130514</v>
+        <v>-3.446712671502696</v>
       </c>
       <c r="G31" t="n">
-        <v>1.109363016033626</v>
+        <v>1.117746612171624</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.796482026482062</v>
       </c>
       <c r="E32" t="n">
-        <v>3.53218141856843</v>
+        <v>3.542004622124064</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.243181237605978</v>
+        <v>-3.246152435470977</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9916422585598395</v>
+        <v>1.001735571012291</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.62677862019972</v>
       </c>
       <c r="E33" t="n">
-        <v>3.349441799510297</v>
+        <v>3.360806813849931</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.095924437277154</v>
+        <v>-3.099574557504425</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9443177197892159</v>
+        <v>0.9523319237602137</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.451903604320909</v>
       </c>
       <c r="E34" t="n">
-        <v>3.166458352420983</v>
+        <v>3.175525251065526</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.086007790643702</v>
+        <v>-3.089668861231655</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8490890031558778</v>
+        <v>0.8581924030026935</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.275069608425941</v>
       </c>
       <c r="E35" t="n">
-        <v>2.87961730448106</v>
+        <v>2.888192166918967</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.970906359445006</v>
+        <v>-2.973197904923687</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8008256534627999</v>
+        <v>0.8090019227718885</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.102916910192998</v>
       </c>
       <c r="E36" t="n">
-        <v>2.589183078189411</v>
+        <v>2.595156134929318</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.91224381722443</v>
+        <v>-2.914887964317066</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7396233575880889</v>
+        <v>0.7466549491939053</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.937384592693398</v>
       </c>
       <c r="E37" t="n">
-        <v>2.322322788373573</v>
+        <v>2.329398181422117</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.85013410146122</v>
+        <v>-2.852126337081265</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6996676815322815</v>
+        <v>0.7045851235024621</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.777916665477923</v>
       </c>
       <c r="E38" t="n">
-        <v>2.012719590696384</v>
+        <v>2.018926255130836</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.77649803604433</v>
+        <v>-2.777576281559467</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6237524810454838</v>
+        <v>0.6274872840620282</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.62830748365202</v>
       </c>
       <c r="E39" t="n">
-        <v>1.731213558480641</v>
+        <v>1.736231743769094</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.646787363648002</v>
+        <v>-2.648774489099728</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6010808542898535</v>
+        <v>0.6057486280364885</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.488591843879608</v>
       </c>
       <c r="E40" t="n">
-        <v>1.503213908652429</v>
+        <v>1.506777886042338</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.53061717724676</v>
+        <v>-2.530514243856351</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5275031907966005</v>
+        <v>0.5320760614173266</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.357263659468811</v>
       </c>
       <c r="E41" t="n">
-        <v>1.248451577317861</v>
+        <v>1.254653861608042</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.416812268752791</v>
+        <v>-2.416269860887018</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4654774277986172</v>
+        <v>0.4694545987982525</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.235189403612106</v>
       </c>
       <c r="E42" t="n">
-        <v>1.03536193859401</v>
+        <v>1.041989096878644</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.294831820973778</v>
+        <v>-2.295314366867824</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4017258879571797</v>
+        <v>0.4051380203456333</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.120819049160182</v>
       </c>
       <c r="E43" t="n">
-        <v>0.834644747392518</v>
+        <v>0.8407273077392436</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.196664027533441</v>
+        <v>-2.19517696855285</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3488750671624666</v>
+        <v>0.3510198778080115</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.011441612982783</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6734028764249249</v>
+        <v>0.6788838969581962</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.131377977148458</v>
+        <v>-2.131578003736913</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2564014612766733</v>
+        <v>0.2591638722646725</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9064245924936872</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4948346147625183</v>
+        <v>0.4994162456717899</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.021958323095533</v>
+        <v>-2.023441001931851</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2239562726005002</v>
+        <v>0.2272253202760448</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8054991537126399</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3226467632573828</v>
+        <v>0.3283920524951085</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.949961891684734</v>
+        <v>-1.950901432631234</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1956035987231442</v>
+        <v>0.1988872468795978</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7083020382145947</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1507246405047926</v>
+        <v>0.1562173414227911</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.88574897664657</v>
+        <v>-1.887590097289205</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1299656767482527</v>
+        <v>0.1322433517700703</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6154950192787363</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03139344998673371</v>
+        <v>0.0362422696966415</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.838941294900128</v>
+        <v>-1.840237087580809</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1152045905491658</v>
+        <v>0.1189131127000738</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5294017129936088</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1028024901448666</v>
+        <v>-0.09874647654832225</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.759694264669876</v>
+        <v>-1.762462515850239</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06279032413363438</v>
+        <v>0.06625063810908799</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4499852848006729</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2048875926131119</v>
+        <v>-0.2021427022022036</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.736586083535064</v>
+        <v>-1.739424417023791</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02383186092391756</v>
+        <v>0.02823828606228001</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3773083234503309</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.312717984319083</v>
+        <v>-0.3096212223182656</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.68172477651917</v>
+        <v>-1.684244819524078</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01920934866810062</v>
+        <v>0.02284632846255419</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3124682096994247</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3697722835675222</v>
+        <v>-0.3671982187832502</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.676883257049717</v>
+        <v>-1.678648455191625</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.0406307223377924</v>
+        <v>-0.03742591677824781</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2550018762248356</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4768565906990389</v>
+        <v>-0.4726122308987673</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.668121508456174</v>
+        <v>-1.671644604499536</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.04189658403261024</v>
+        <v>-0.03890932563861105</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2036848453826122</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5217092680517541</v>
+        <v>-0.5149813664488468</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.657810648838176</v>
+        <v>-1.659505764671721</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.07738305288214617</v>
+        <v>-0.07450821819114695</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1588660987510713</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6470339559829932</v>
+        <v>-0.6394417059102679</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.643545978989998</v>
+        <v>-1.644216141063725</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.09893044260777675</v>
+        <v>-0.09630965628459563</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1193917292180412</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7274256639165171</v>
+        <v>-0.7215971519376095</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.60929325077728</v>
+        <v>-1.610998586947462</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1229876550016794</v>
+        <v>-0.1193214742454076</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.08451434268628366</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8599279482626633</v>
+        <v>-0.8530774026201197</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.646321530410816</v>
+        <v>-1.647936343599361</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1239293860203155</v>
+        <v>-0.1214969459008616</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.05474308667072674</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9316455104880986</v>
+        <v>-0.9243481901297369</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.623955053706186</v>
+        <v>-1.625146452948367</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1621052634533052</v>
+        <v>-0.1605838933425784</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.03020841253630794</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.046441791635795</v>
+        <v>-1.039072928920979</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.633695034520637</v>
+        <v>-1.63501637804291</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1877933495647529</v>
+        <v>-0.1849374954989355</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.01052406800436337</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.088843048243875</v>
+        <v>-1.081082892640695</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.629693042703457</v>
+        <v>-1.630157337996366</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1992824679921134</v>
+        <v>-0.1969989527779322</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.004161422555177091</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.172478983035398</v>
+        <v>-1.16531744714949</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.677972452925535</v>
+        <v>-1.678362285765807</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2604424224721879</v>
+        <v>-0.2578084957161886</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.01420110235212529</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.223405460446293</v>
+        <v>-1.216468771966386</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.681075055118715</v>
+        <v>-1.682208052437261</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3033269549983582</v>
+        <v>-0.3017968245990859</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.0204220890073215</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.284042717709822</v>
+        <v>-1.280208631423096</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.728621521199157</v>
+        <v>-1.729858181932157</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3224462847488077</v>
+        <v>-0.320218251362081</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.0235096979990776</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.349547775308441</v>
+        <v>-1.346186744603169</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.758194795280513</v>
+        <v>-1.759304431829604</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3696788404897041</v>
+        <v>-0.3666580009896139</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.02452898914710914</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.365490040413073</v>
+        <v>-1.362675067693801</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.843674770810854</v>
+        <v>-1.845045025944172</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3657031295381596</v>
+        <v>-0.362691050326615</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.02407149109490351</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.390449562527157</v>
+        <v>-1.388025882696249</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.960172007984459</v>
+        <v>-1.959018569992641</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3954705900156062</v>
+        <v>-0.3925723945551525</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.02285469643070874</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.430139509830419</v>
+        <v>-1.428193265725238</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.029841852762395</v>
+        <v>-2.029876893916577</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3685575235558862</v>
+        <v>-0.3666434005087049</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.02083529532242066</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.457711057979139</v>
+        <v>-1.456583900852958</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.144909702855</v>
+        <v>-2.145061547856455</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4376382389291403</v>
+        <v>-0.4350203727021411</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.0183220458007663</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.451018197530414</v>
+        <v>-1.45253810759305</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.292085470514779</v>
+        <v>-2.29289798727737</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4587067328809529</v>
+        <v>-0.456497680119408</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.01552637012536387</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.478706549526406</v>
+        <v>-1.480670314208679</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.422938630542244</v>
+        <v>-2.422134144044153</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4739934363927669</v>
+        <v>-0.470235272606768</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.01248523442473395</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.518241731732032</v>
+        <v>-1.517571569658305</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.597387366516151</v>
+        <v>-2.593161987341062</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5330290209005693</v>
+        <v>-0.53026660991257</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.008954900240945</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.526585906571575</v>
+        <v>-1.527305710280393</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.69530111158867</v>
+        <v>-2.691945921075762</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5518592611290187</v>
+        <v>-0.5495392447125649</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.004563667669834762</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.51116925877967</v>
+        <v>-1.511633554072579</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.823210814664864</v>
+        <v>-2.81719687657841</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.567110923486651</v>
+        <v>-0.5630563699381975</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.0007793195764871147</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.567585517012382</v>
+        <v>-1.567055519555383</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.963619989447326</v>
+        <v>-2.957003781523373</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5791125187939206</v>
+        <v>-0.5744593455281946</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.006859312515658986</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.446949043501051</v>
+        <v>-1.445125443435506</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.029539700703762</v>
+        <v>-3.021882478490992</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6143858206221838</v>
+        <v>-0.6098041897129123</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.01334000692899048</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.343548437702897</v>
+        <v>-1.341371505999352</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.093116764798336</v>
+        <v>-3.085809954127384</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6046721206733682</v>
+        <v>-0.6000131072152786</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.02005407601482802</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.233513373379654</v>
+        <v>-1.230320248204837</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.173249314195724</v>
+        <v>-3.164940910534408</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5822852032954652</v>
+        <v>-0.5762654250166486</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.02654677031180653</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.10124031658378</v>
+        <v>-1.098147934727236</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.235814564963298</v>
+        <v>-3.227425858656982</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5945087259125528</v>
+        <v>-0.588843739319827</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.03333452975536892</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9006764304318342</v>
+        <v>-0.8975314868440168</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.303098691160689</v>
+        <v>-3.293004648684192</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5915375280475536</v>
+        <v>-0.5857863986174642</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.04122303565354586</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.692342168340072</v>
+        <v>-0.6904572462547088</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.347644028390268</v>
+        <v>-3.336386327585317</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5569270880525629</v>
+        <v>-0.5513540844895644</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.05136790398010389</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4374090113788677</v>
+        <v>-0.4365592633899588</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.396711864581436</v>
+        <v>-3.386435316093576</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5183584576831187</v>
+        <v>-0.5122831975768476</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.06455354123351646</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.178548325053119</v>
+        <v>-0.1753639601668471</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.344575007303178</v>
+        <v>-3.33461601927509</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4761221865093118</v>
+        <v>-0.4705521030424951</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.08156808373912557</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1138744867383479</v>
+        <v>0.1155885831970747</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.34335732719536</v>
+        <v>-3.33300193611059</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4562392516073172</v>
+        <v>-0.4516065190148639</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1027745178520518</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4389074726402606</v>
+        <v>0.4398156225528059</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.291064974795419</v>
+        <v>-3.281162198618831</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4096666376035115</v>
+        <v>-0.4042951206770584</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1278104587194888</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7235599084919115</v>
+        <v>0.7230357512272753</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.215779785059849</v>
+        <v>-3.203101457462443</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3675661509021592</v>
+        <v>-0.3618369221934334</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1559330000749512</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9829111709762055</v>
+        <v>0.97972096589757</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.135289523880189</v>
+        <v>-3.119406390723238</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2898375706864528</v>
+        <v>-0.2853931842977267</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.185541168181597</v>
       </c>
       <c r="E87" t="n">
-        <v>1.172549517263882</v>
+        <v>1.170455808301519</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.021641570555992</v>
+        <v>-3.005740186797905</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2552329708838257</v>
+        <v>-0.2504075119433725</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2143465125179228</v>
       </c>
       <c r="E88" t="n">
-        <v>1.343366383611654</v>
+        <v>1.339890009107201</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.790612320939145</v>
+        <v>-2.773910100803195</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2531071408634626</v>
+        <v>-0.2483955656741003</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2396867907213215</v>
       </c>
       <c r="E89" t="n">
-        <v>1.481703020129072</v>
+        <v>1.480380216558708</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.555064222480935</v>
+        <v>-2.53863430131394</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1800404942020277</v>
+        <v>-0.1770576159523012</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2582294856852783</v>
       </c>
       <c r="E90" t="n">
-        <v>1.611115842714855</v>
+        <v>1.607619027537129</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.269532107654512</v>
+        <v>-2.255461624202425</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1690550923660306</v>
+        <v>-0.1679235550955764</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2666310388141053</v>
       </c>
       <c r="E91" t="n">
-        <v>1.652170934983117</v>
+        <v>1.6477572096043</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.979995810938772</v>
+        <v>-1.966064032055321</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09862383250868592</v>
+        <v>-0.09819311832186786</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2626179109130645</v>
       </c>
       <c r="E92" t="n">
-        <v>1.615801137038581</v>
+        <v>1.612767157105673</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.615018099341733</v>
+        <v>-1.603163968891645</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1110824228684098</v>
+        <v>-0.1093610261692285</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2444900074569199</v>
       </c>
       <c r="E93" t="n">
-        <v>1.645462014005391</v>
+        <v>1.643762518027573</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.271401621338735</v>
+        <v>-1.262047093220283</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.140008895645493</v>
+        <v>-0.1384028427454934</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2128281422953912</v>
       </c>
       <c r="E94" t="n">
-        <v>1.592571771912224</v>
+        <v>1.592514830036678</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.01190435404535</v>
+        <v>-1.005907936535988</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1431991007241285</v>
+        <v>-0.1420588031651288</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1696836522030063</v>
       </c>
       <c r="E95" t="n">
-        <v>1.58564092362468</v>
+        <v>1.584523986835135</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.7073164215604316</v>
+        <v>-0.7025347640627055</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.2008198986318403</v>
+        <v>-0.1996314194858406</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1186523386240051</v>
       </c>
       <c r="E96" t="n">
-        <v>1.485294738432707</v>
+        <v>1.48348427879998</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4170734615686913</v>
+        <v>-0.4162864956476915</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2245442200610157</v>
+        <v>-0.2245617406381067</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.06554665160559678</v>
       </c>
       <c r="E97" t="n">
-        <v>1.363116454137376</v>
+        <v>1.363534027891376</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2053256070403846</v>
+        <v>-0.2052117232892937</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3313992996422598</v>
+        <v>-0.329588840009533</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.0140899175022942</v>
       </c>
       <c r="E98" t="n">
-        <v>1.292777177309759</v>
+        <v>1.291566797442395</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04002772247624711</v>
+        <v>-0.04146294974961036</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3383622689878034</v>
+        <v>-0.3351881244381679</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.0314485358575068</v>
       </c>
       <c r="E99" t="n">
-        <v>1.138945050403527</v>
+        <v>1.138823866411982</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07938669078299355</v>
+        <v>0.07774705677690308</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3506106124224365</v>
+        <v>-0.3474919497002554</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.07062762462382595</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9710716410070268</v>
+        <v>0.9729638633328446</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1783750312504215</v>
+        <v>0.1752914096824223</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3895311143817896</v>
+        <v>-0.3859569166552451</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1025527433765839</v>
       </c>
       <c r="E101" t="n">
-        <v>0.803077047618981</v>
+        <v>0.8064088773624347</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2267522646945903</v>
+        <v>0.2239898537065911</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.354919214338708</v>
+        <v>-0.3517392295967089</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1315163714333061</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7001013158152815</v>
+        <v>0.7056056971180072</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2447181564532219</v>
+        <v>0.2418141208004045</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.369583937363795</v>
+        <v>-0.3660301803105232</v>
       </c>
     </row>
   </sheetData>
